--- a/Data Atlet Pelatih/Database-Pelatih.xlsx
+++ b/Data Atlet Pelatih/Database-Pelatih.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -116,9 +116,6 @@
     <t>nmevnt</t>
   </si>
   <si>
-    <t>juamdl</t>
-  </si>
-  <si>
     <t>cttnpres</t>
   </si>
   <si>
@@ -153,6 +150,15 @@
   </si>
   <si>
     <t>Muchlis Ali, S.E.</t>
+  </si>
+  <si>
+    <t>medali</t>
+  </si>
+  <si>
+    <t>juara</t>
+  </si>
+  <si>
+    <t>almtklb</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -278,6 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +568,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AQ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -597,27 +604,29 @@
     <col min="23" max="23" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.77734375" customWidth="1"/>
+    <col min="33" max="33" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -659,8 +668,10 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -736,36 +747,40 @@
       <c r="Y2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
       <c r="AK2" s="10"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="3" t="s">
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -791,48 +806,52 @@
       <c r="W3" s="3"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
+      <c r="AN3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="AO3" s="3"/>
-    </row>
-    <row r="4" spans="1:41" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+    </row>
+    <row r="4" spans="1:43" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -874,13 +893,15 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -921,8 +942,10 @@
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -966,8 +989,10 @@
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1011,8 +1036,10 @@
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1056,8 +1083,10 @@
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1101,8 +1130,10 @@
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1146,8 +1177,10 @@
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1191,8 +1224,10 @@
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1236,8 +1271,10 @@
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1281,8 +1318,10 @@
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1326,8 +1365,10 @@
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1371,8 +1412,10 @@
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1416,8 +1459,10 @@
       <c r="AM16" s="3"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1461,8 +1506,10 @@
       <c r="AM17" s="3"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -1506,8 +1553,10 @@
       <c r="AM18" s="3"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -1551,11 +1600,13 @@
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AJ2:AN2"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
